--- a/pred_ohlcv/54_21/2019-10-15 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 WAVES ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>15357.34859999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>10269.65309999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5698.979699999994</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3353.955899999994</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2984.580500000005</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-4541.042200000005</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-5976.297300000006</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-6084.151100000005</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-13574.84330000001</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-15446.90750000001</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-14223.72330000001</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-16483.77340000001</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-16483.77340000001</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-16780.06240000001</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-16780.06240000001</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-16780.06240000001</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-16770.12210000001</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-16807.68970000001</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-16172.68970000001</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-16244.68970000001</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-16102.96970000001</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-16102.96970000001</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-16102.96970000001</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-16002.96970000001</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-16945.21940000001</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-16935.27910000001</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-16935.27910000001</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-16935.27910000001</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-17754.09370000001</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-17734.21310000001</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-17734.21310000001</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-20598.61220000001</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-20598.61220000001</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-20564.53950000001</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-20564.53950000001</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-20664.53950000001</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-20664.53950000001</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-20654.63860000001</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-20722.64410000001</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-20265.86420000001</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-19317.17010000001</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-19317.17010000001</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-19317.17010000001</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-19317.17010000001</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-19317.17010000001</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-19058.80010000001</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-19058.80010000001</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-19068.36410000001</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-17868.36410000001</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-15468.36410000001</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-15468.36410000001</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-15458.58900000001</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-12872.27080000001</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-12692.27080000001</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-11658.52080000001</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-9838.520800000006</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-8883.439000000006</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-8894.035900000006</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-8894.035900000006</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-8838.504300000006</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-8688.504300000006</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-8688.504300000006</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-8688.504300000006</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-14797.1647</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-13812.46580000001</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-14334.4605</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-14484.0855</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-14484.682</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-13677.7348</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-21136.35070000001</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-19986.35070000001</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1648.002530879996</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>7166.318630879995</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3000.215230879995</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-3225.521469120005</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-12278.52596912</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-11589.55526912</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-11589.55526912</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-12999.61576912</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-12999.41576912</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-12999.41576912</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-12999.41576912</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-16848.13516912</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-16797.93516912</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-20822.82486912</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-25643.23346912</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-50461.09464622</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-51091.24864622</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-51091.24864622</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-47847.35954622</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-55944.96914622</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-55944.96914622</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-55670.52694622</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-56475.81604622</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-55150.34914622</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-54873.39034622</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-54873.39034622</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-54873.39034622</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-54459.86044622</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-54458.86044622</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-15 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 WAVES ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>15357.34859999999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>10269.65309999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5698.979699999994</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3353.955899999994</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2984.580500000005</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-4541.042200000005</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-5976.297300000006</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-6084.151100000005</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-8883.439000000006</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-8894.035900000006</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-8894.035900000006</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-8838.504300000006</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-8688.504300000006</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-8688.504300000006</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-8688.504300000006</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-14797.1647</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-13812.46580000001</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-14334.4605</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-14484.0855</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-14484.682</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-13677.7348</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-21136.35070000001</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-19986.35070000001</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1648.002530879996</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>4931.752330879995</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>9345.916230879995</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>7166.318630879995</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3000.215230879995</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-3225.521469120005</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-12278.52596912</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-11589.55526912</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-11589.55526912</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-12999.61576912</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-12999.41576912</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-12999.41576912</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-12999.41576912</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-16848.13516912</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-16797.93516912</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-20822.82486912</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-20822.82486912</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-25643.23346912</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-26162.03216912</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-26361.53216912</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-30343.11796912001</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-30100.30594622</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-51091.24864622</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-51091.24864622</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-55944.96914622</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-55670.52694622</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-56475.81604622</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-55150.34914622</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-54918.19704622</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-54873.39034622</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-54873.39034622</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-54873.39034622</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-54459.86044622</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-54458.86044622</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-54315.90934622</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-54340.90934622</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-54340.90934622</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-53840.90934622</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-53810.67974622</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-53810.67974622</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-53771.23984622001</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-53662.14284622001</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-52753.98804622001</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-50144.72414622001</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-44615.14004622001</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-42437.26975512002</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
